--- a/static/results_predictions.xlsx
+++ b/static/results_predictions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,11 +469,6 @@
           <t>Prediction</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Prediction_Status</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -499,11 +494,6 @@
           <t>High</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -529,11 +519,6 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -559,11 +544,6 @@
           <t>High</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -589,11 +569,6 @@
           <t>Moderate</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -619,11 +594,6 @@
           <t>High</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -649,11 +619,6 @@
           <t>Moderate</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -679,11 +644,6 @@
           <t>High</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -709,11 +669,6 @@
           <t>Moderate</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -739,11 +694,6 @@
           <t>Moderate</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -769,11 +719,6 @@
           <t>High</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -799,11 +744,6 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -829,11 +769,6 @@
           <t>High</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -859,11 +794,6 @@
           <t>High</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -889,11 +819,6 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -919,11 +844,6 @@
           <t>High</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -949,11 +869,6 @@
           <t>Moderate</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -979,11 +894,6 @@
           <t>High</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1009,11 +919,6 @@
           <t>High</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1039,11 +944,6 @@
           <t>High</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1069,11 +969,6 @@
           <t>Moderate</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1099,11 +994,6 @@
           <t>High</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1129,11 +1019,6 @@
           <t>Moderate</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1159,11 +1044,6 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1189,11 +1069,6 @@
           <t>High</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1219,11 +1094,6 @@
           <t>High</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1249,11 +1119,6 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1279,11 +1144,6 @@
           <t>Moderate</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1309,11 +1169,6 @@
           <t>High</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1339,11 +1194,6 @@
           <t>High</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Benar</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1367,11 +1217,6 @@
       <c r="G31" t="inlineStr">
         <is>
           <t>High</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Benar</t>
         </is>
       </c>
     </row>
